--- a/docs/StructureDefinition-clinical-trial-patient.xlsx
+++ b/docs/StructureDefinition-clinical-trial-patient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-07T21:23:47+01:00</t>
+    <t>2025-12-07T21:41:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
